--- a/Conversation sample.xlsx
+++ b/Conversation sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>You&gt; Somenath</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Gb&gt; Welcome to HL bot services. My name is Ghobot. Whom am I speaking with today?</t>
   </si>
   <si>
-    <t>Gb&gt; as I understand, you would like to recover your user id?</t>
-  </si>
-  <si>
     <t>Gb&gt; Please call 800-Support for further help or send email to customersupport@hlsc.com</t>
   </si>
   <si>
@@ -193,6 +190,12 @@
   </si>
   <si>
     <t>Gb&gt; Okay, please state your name. [GOTO 5]</t>
+  </si>
+  <si>
+    <t>[GOTO 10/M]</t>
+  </si>
+  <si>
+    <t>Gb&gt; As I understood, you want help recovering your user id, right?</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +375,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4A500"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +394,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -399,8 +408,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -426,20 +443,29 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -771,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -808,7 +834,7 @@
     </row>
     <row r="9" spans="2:20" s="2" customFormat="1">
       <c r="P9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -838,7 +864,7 @@
     </row>
     <row r="12" spans="2:20" s="3" customFormat="1">
       <c r="M12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -849,7 +875,7 @@
     </row>
     <row r="13" spans="2:20" s="3" customFormat="1">
       <c r="M13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
@@ -860,7 +886,7 @@
     </row>
     <row r="14" spans="2:20" s="3" customFormat="1">
       <c r="M14" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -871,7 +897,7 @@
     </row>
     <row r="15" spans="2:20" s="3" customFormat="1">
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -904,7 +930,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
@@ -912,7 +938,7 @@
     </row>
     <row r="18" spans="2:23" s="3" customFormat="1">
       <c r="K18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -923,7 +949,7 @@
     </row>
     <row r="19" spans="2:23" s="3" customFormat="1">
       <c r="K19" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -956,7 +982,7 @@
     </row>
     <row r="22" spans="2:23" s="3" customFormat="1">
       <c r="K22" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -967,7 +993,7 @@
     </row>
     <row r="23" spans="2:23" s="3" customFormat="1">
       <c r="K23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -1003,7 +1029,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
@@ -1020,7 +1046,7 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
@@ -1037,7 +1063,7 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
@@ -1063,7 +1089,7 @@
     </row>
     <row r="30" spans="2:23" s="4" customFormat="1">
       <c r="P30" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
@@ -1078,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
@@ -1086,7 +1112,7 @@
     </row>
     <row r="33" spans="2:24" s="5" customFormat="1">
       <c r="K33" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
@@ -1097,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
@@ -1115,7 +1141,7 @@
     </row>
     <row r="35" spans="2:24" s="5" customFormat="1">
       <c r="P35" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
@@ -1128,7 +1154,7 @@
     </row>
     <row r="36" spans="2:24" s="5" customFormat="1">
       <c r="P36" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
@@ -1141,7 +1167,7 @@
     </row>
     <row r="37" spans="2:24" s="5" customFormat="1">
       <c r="P37" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
@@ -1167,13 +1193,13 @@
     </row>
     <row r="40" spans="2:24" s="6" customFormat="1">
       <c r="K40" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="2:24" s="6" customFormat="1"/>
     <row r="42" spans="2:24" s="17" customFormat="1">
       <c r="B42" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42" s="17" t="s">
         <v>16</v>
@@ -1184,18 +1210,18 @@
         <v>2</v>
       </c>
       <c r="Q43" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="T43" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="T43" s="17" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="44" spans="2:24" s="17" customFormat="1">
       <c r="K44" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M44" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="2:24" s="18" customFormat="1">
@@ -1203,7 +1229,7 @@
         <v>13</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
@@ -1212,7 +1238,7 @@
     </row>
     <row r="46" spans="2:24" s="18" customFormat="1">
       <c r="K46" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
@@ -1221,7 +1247,7 @@
     </row>
     <row r="47" spans="2:24" s="18" customFormat="1">
       <c r="K47" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
@@ -1231,39 +1257,39 @@
         <v>3</v>
       </c>
       <c r="Q47" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="2:24" s="18" customFormat="1">
       <c r="K48" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
     </row>
-    <row r="49" spans="2:18" s="18" customFormat="1">
+    <row r="49" spans="2:22" s="18" customFormat="1">
       <c r="K49" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
       <c r="N49" s="21"/>
       <c r="O49" s="21"/>
     </row>
-    <row r="50" spans="2:18" s="18" customFormat="1">
+    <row r="50" spans="2:22" s="18" customFormat="1">
       <c r="K50" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
     </row>
-    <row r="51" spans="2:18" s="18" customFormat="1">
+    <row r="51" spans="2:22" s="18" customFormat="1">
       <c r="K51" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
@@ -1274,36 +1300,44 @@
       </c>
       <c r="Q51" s="22"/>
       <c r="R51" s="22"/>
-    </row>
-    <row r="52" spans="2:18" s="18" customFormat="1">
+      <c r="S51" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" s="18" customFormat="1">
       <c r="K52" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
       <c r="N52" s="21"/>
       <c r="O52" s="21"/>
       <c r="P52" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q52" s="22"/>
       <c r="R52" s="22"/>
     </row>
-    <row r="53" spans="2:18" s="18" customFormat="1">
+    <row r="53" spans="2:22" s="18" customFormat="1">
       <c r="K53" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
       <c r="N53" s="21"/>
       <c r="O53" s="21"/>
     </row>
-    <row r="54" spans="2:18">
+    <row r="54" spans="2:22">
       <c r="B54" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:18" s="20" customFormat="1">
+    <row r="55" spans="2:22" s="20" customFormat="1">
       <c r="B55" s="20" t="s">
         <v>15</v>
       </c>
@@ -1311,20 +1345,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:18" s="20" customFormat="1">
+    <row r="56" spans="2:22" s="20" customFormat="1">
       <c r="K56" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="O56" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="O56" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18">
+    </row>
+    <row r="57" spans="2:22">
       <c r="B57" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:18" s="24" customFormat="1">
+    <row r="58" spans="2:22" s="24" customFormat="1">
       <c r="B58" s="24" t="s">
         <v>19</v>
       </c>
@@ -1339,12 +1373,12 @@
       <c r="Q58" s="23"/>
       <c r="R58" s="23"/>
     </row>
-    <row r="59" spans="2:18">
+    <row r="59" spans="2:22">
       <c r="B59" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L59" s="23"/>
       <c r="M59" s="23"/>
@@ -1354,9 +1388,9 @@
       <c r="Q59" s="23"/>
       <c r="R59" s="23"/>
     </row>
-    <row r="60" spans="2:18">
+    <row r="60" spans="2:22">
       <c r="K60" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L60" s="23"/>
       <c r="M60" s="23"/>
@@ -1366,9 +1400,9 @@
       <c r="Q60" s="23"/>
       <c r="R60" s="23"/>
     </row>
-    <row r="61" spans="2:18">
+    <row r="61" spans="2:22">
       <c r="K61" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L61" s="23"/>
       <c r="M61" s="23"/>
